--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘笑\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘笑\Documents\GitHub\Excel_Processing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67F858-9E03-49A2-AC18-1239A8DD7E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACFC5B7-632A-4324-B9AE-4CACE06B06E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="18708" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,11 +1053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
